--- a/Assets/Resources/Document/Excel/GrowthStat.xlsx
+++ b/Assets/Resources/Document/Excel/GrowthStat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t>growthRune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,43 +446,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2">
-        <v>250</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>1.25</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -483,15 +491,44 @@
         <v>1.25</v>
       </c>
       <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>1.25</v>
+      </c>
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Resources/Document/Excel/GrowthStat.xlsx
+++ b/Assets/Resources/Document/Excel/GrowthStat.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Document/Excel/GrowthStat.xlsx
+++ b/Assets/Resources/Document/Excel/GrowthStat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
